--- a/Data Analysis - Excel.xlsx
+++ b/Data Analysis - Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic Magbiray\Documents\REFOCUS\FINAL PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF4CBB-A837-49AE-8384-CBEA21A4CAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2634291-6786-45D4-9FE0-6DB6869F69D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{606AA143-904B-44B2-902D-3E0D688C0548}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="75">
   <si>
     <t>state_usa</t>
   </si>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,30 +435,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
@@ -556,6 +545,13 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
@@ -622,12 +618,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -635,12 +628,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-PH" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
+              <a:rPr lang="en-PH" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
               </a:rPr>
               <a:t>State income vs. Corruption convictions per capita</a:t>
             </a:r>
-            <a:endParaRPr lang="en-PH" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -657,12 +651,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -693,34 +684,49 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -730,11 +736,12 @@
           </c:trendline>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -761,12 +768,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="bg1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -1128,12 +1132,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1141,7 +1142,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-PH" b="1"/>
+                  <a:rPr lang="en-PH" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Convictions per capita</a:t>
                 </a:r>
               </a:p>
@@ -1160,12 +1165,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1184,9 +1186,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1198,12 +1199,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1231,12 +1229,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1244,7 +1239,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-PH" b="1"/>
+                  <a:rPr lang="en-PH" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Average Income</a:t>
                 </a:r>
               </a:p>
@@ -1263,12 +1262,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1287,9 +1283,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1301,12 +1296,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1341,11 +1333,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1397,20 +1392,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US"/>
               <a:t>Average Income per State</a:t>
             </a:r>
           </a:p>
@@ -1429,13 +1430,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1450,16 +1457,87 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="diamond"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1479,9 +1557,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1506,13 +1583,42 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1524,12 +1630,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1537,9 +1640,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:fld id="{44DF8D27-EFBE-4B43-AC8F-1ACEA72E5521}" type="VALUE">
-                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:rPr lang="en-US" sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:pPr>
-                    <a:defRPr/>
+                    <a:defRPr sz="2000" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:defRPr>
                   </a:pPr>
                   <a:t>[VALUE]</a:t>
                 </a:fld>
@@ -1561,12 +1672,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1612,28 +1720,48 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="49"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-F832-4248-8A8D-F6F5558067D3}"/>
@@ -1645,18 +1773,66 @@
               <c:idx val="49"/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
                     <a:fld id="{44DF8D27-EFBE-4B43-AC8F-1ACEA72E5521}" type="VALUE">
-                      <a:rPr lang="en-US" sz="1100" b="1"/>
-                      <a:pPr/>
+                      <a:rPr lang="en-US" sz="2000" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr sz="2000" b="1">
+                          <a:solidFill>
+                            <a:schemeClr val="bg1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-PH"/>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1689,9 +1865,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1714,14 +1889,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2060,7 +2234,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
         <c:axId val="1833676352"/>
         <c:axId val="1833675392"/>
       </c:barChart>
@@ -2077,11 +2252,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2093,12 +2268,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2138,12 +2310,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2177,17 +2346,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2303,56 +2483,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2360,16 +2530,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2379,23 +2548,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2403,63 +2567,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2483,21 +2707,510 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2516,14 +3229,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2535,14 +3247,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2556,9 +3268,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2572,12 +3283,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2589,9 +3294,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2606,14 +3311,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2625,14 +3329,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2644,14 +3348,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2660,14 +3363,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2675,7 +3377,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2688,11 +3390,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2700,14 +3412,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2719,12 +3431,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2740,7 +3459,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2749,9 +3467,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2767,14 +3484,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2783,525 +3499,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3313,12 +3512,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3395,6 +3588,73 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>35443</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>70884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1187303</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Beveled 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00257958-E61C-EB4A-9572-3AB18F9B2EF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35443" y="16072884"/>
+          <a:ext cx="6973186" cy="1045535"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>By using VLOOKUP function, we are able to get the specific data/values from the other excel sheets to fill out the table below.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4740,7 +5000,7 @@
     <tableColumn id="4" xr3:uid="{7DDCCD20-58F0-415A-A063-99501184179C}" uniqueName="4" name="maximum_income" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{416E44A5-7F81-4B63-97C3-3E5EBF264AE0}" uniqueName="5" name="convictions_per_capita" queryTableFieldId="5"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4760,27 +5020,27 @@
       <calculatedColumnFormula>Table_corruption_convictions__2[[#This Row],[Profit]]-(Table_corruption_convictions__2[[#This Row],[Marketing]]+Table_corruption_convictions__2[[#This Row],[Administrtation]]+Table_corruption_convictions__2[[#This Row],[Research and Development]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{284E573B-2AAE-440E-A3FC-B50EB80EF0CA}" name="Table8" displayName="Table8" ref="A85:J91" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="11">
-  <autoFilter ref="A85:J91" xr:uid="{284E573B-2AAE-440E-A3FC-B50EB80EF0CA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A86:J91">
-    <sortCondition ref="B86:B91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{284E573B-2AAE-440E-A3FC-B50EB80EF0CA}" name="Table8" displayName="Table8" ref="A93:J99" totalsRowShown="0" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A93:J99" xr:uid="{284E573B-2AAE-440E-A3FC-B50EB80EF0CA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A94:J99">
+    <sortCondition ref="B94:B99"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4C0D5261-CE0A-43D1-81FE-5B2107DD0B4D}" name="state_usa" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E76581ED-5D9C-417C-994E-E8C8CA60122F}" name="Research and Development" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A6FA3AA6-D9AE-4C27-9ED9-AD2D36750887}" name="Administrtation" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{778675B0-E329-4AF0-ACE3-6E76D870F727}" name="Marketing" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{CDD119D8-5CDE-49C3-A92A-8F92F0CEC384}" name="Profit" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{EC879D5B-3728-4614-A3EA-ECD02D5862A2}" name="Net Profit" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{8DC3BD76-B0B0-4389-93F3-7F8982D5BD04}" name="Population" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{D8AA7567-0C87-4A86-A606-D1035F26EA0D}" name="Convic Rate" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{51917961-FA24-4119-BD1E-BB542DCAA041}" name="Health spender" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{0232DF5A-789B-4BCB-B93B-75F63563C10A}" name="Income" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4C0D5261-CE0A-43D1-81FE-5B2107DD0B4D}" name="state_usa" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E76581ED-5D9C-417C-994E-E8C8CA60122F}" name="Research and Development" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A6FA3AA6-D9AE-4C27-9ED9-AD2D36750887}" name="Administrtation" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{778675B0-E329-4AF0-ACE3-6E76D870F727}" name="Marketing" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{CDD119D8-5CDE-49C3-A92A-8F92F0CEC384}" name="Profit" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{EC879D5B-3728-4614-A3EA-ECD02D5862A2}" name="Net Profit" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{8DC3BD76-B0B0-4389-93F3-7F8982D5BD04}" name="Population" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{D8AA7567-0C87-4A86-A606-D1035F26EA0D}" name="Convic Rate" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{51917961-FA24-4119-BD1E-BB542DCAA041}" name="Health spender" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{0232DF5A-789B-4BCB-B93B-75F63563C10A}" name="Income" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5086,7 +5346,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5977,9 +6237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B532419-8F4C-4B26-A23D-491EEC193801}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6888,8 +7146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07F79B3-A987-47E3-8F53-1B05D961F6E4}">
   <dimension ref="A26:N161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6963,229 +7221,261 @@
   </cols>
   <sheetData>
     <row r="26" spans="5:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="5:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E27" s="7">
+      <c r="E27" s="13">
         <f>CORREL(I108:I157,J108:J157)</f>
         <v>-0.22628231005583294</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+      <c r="F27" s="13"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B93" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C93" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D93" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E93" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F93" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G93" t="s">
         <v>65</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H93" t="s">
         <v>66</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I93" t="s">
         <v>68</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J93" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="str">
+        <f>VLOOKUP("Hawaii",Table_state_income_vs_corruption[],1,0)</f>
+        <v>Hawaii</v>
+      </c>
+      <c r="B94" s="9">
+        <f>VLOOKUP("Hawaii",Table_corruption_convictions__2[],2,0)</f>
         <v>3042407.9699999997</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C94" s="9">
+        <f>VLOOKUP("Hawaii",Table_corruption_convictions__2[],3,0)</f>
         <v>292099.69999999995</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D94" s="9">
+        <f>VLOOKUP("Hawaii",Table_corruption_convictions__2[],4,0)</f>
         <v>197432</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E94" s="9">
+        <f>VLOOKUP("Hawaii",Table_corruption_convictions__2[],5,0)</f>
         <v>4666354.9700000007</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F94" s="9">
+        <f>VLOOKUP("Hawaii",Table_corruption_convictions__2[],6,0)</f>
         <v>1134415.3000000007</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G94" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H94" s="6">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I94" s="9">
         <v>350</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J94" s="9">
+        <f>VLOOKUP("Hawaii",Table_state_income_vs_corruption[],2,0)</f>
         <v>78084</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="17">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="str">
+        <f>VLOOKUP("Maryland",Table_state_income_vs_corruption[],1,0)</f>
+        <v>Maryland</v>
+      </c>
+      <c r="B95" s="8">
+        <f>VLOOKUP("Maryland",Table_corruption_convictions__2[],2,0)</f>
         <v>4263071.96</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C95" s="8">
+        <f>VLOOKUP("Maryland",Table_corruption_convictions__2[],3,0)</f>
         <v>470056.6</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D95" s="8">
+        <f>VLOOKUP("Maryland",Table_corruption_convictions__2[],4,0)</f>
         <v>292721</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E95" s="8">
+        <f>VLOOKUP("Maryland",Table_corruption_convictions__2[],5,0)</f>
         <v>7120800.96</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F95" s="8">
+        <f>VLOOKUP("Maryland",Table_corruption_convictions__2[],6,0)</f>
         <v>2094951.4000000004</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G95" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H95" s="7">
         <v>1.38</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I95" s="8">
         <v>200</v>
       </c>
-      <c r="J87" s="11">
+      <c r="J95" s="9">
+        <f>VLOOKUP("Maryland",Table_state_income_vs_corruption[],2,0)</f>
         <v>89392</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B96" s="8">
+        <f>VLOOKUP("California",Table_corruption_convictions__2[],2,0)</f>
         <v>7361202.5</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C96" s="8">
+        <f>VLOOKUP("California",Table_corruption_convictions__2[],3,0)</f>
         <v>3199484.48</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D96" s="8">
+        <f>VLOOKUP("California",Table_corruption_convictions__2[],4,0)</f>
         <v>5070906.74</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E96" s="8">
+        <f>VLOOKUP("California",Table_corruption_convictions__2[],5,0)</f>
         <v>10754524</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F96" s="8">
+        <f>VLOOKUP("California",Table_corruption_convictions__2[],6,0)</f>
         <v>-4877069.7200000007</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G96" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H96" s="7">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I96" s="8">
         <v>250</v>
       </c>
-      <c r="J88" s="11">
+      <c r="J96" s="9">
+        <f>VLOOKUP("California",Table_state_income_vs_corruption[],2,0)</f>
         <v>80440</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B97" s="8">
+        <f>VLOOKUP("Oklahoma",Table_corruption_convictions__2[],2,0)</f>
         <v>7546525.9300000006</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C97" s="8">
+        <f>VLOOKUP("Oklahoma",Table_corruption_convictions__2[],3,0)</f>
         <v>679185.3</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D97" s="8">
+        <f>VLOOKUP("Oklahoma",Table_corruption_convictions__2[],4,0)</f>
         <v>627142</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E97" s="8">
+        <f>VLOOKUP("Oklahoma",Table_corruption_convictions__2[],5,0)</f>
         <v>15699222.930000002</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F97" s="8">
+        <f>VLOOKUP("Oklahoma",Table_corruption_convictions__2[],6,0)</f>
         <v>6846369.7000000011</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G97" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H97" s="7">
         <v>3.23</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I97" s="8">
         <v>175.5</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J97" s="9">
         <v>51424</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="15">
+      <c r="B98" s="9">
+        <f>VLOOKUP("Wyoming",Table_corruption_convictions__2[],2,0)</f>
         <v>9450079.9000000004</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C98" s="9">
+        <f>VLOOKUP("Wyoming",Table_corruption_convictions__2[],3,0)</f>
         <v>1060288</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D98" s="9">
+        <f>VLOOKUP("Wyoming",Table_corruption_convictions__2[],4,0)</f>
         <v>841671</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E98" s="9">
+        <f>VLOOKUP("Wyoming",Table_corruption_convictions__2[],5,0)</f>
         <v>16710539.900000002</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F98" s="9">
+        <f>VLOOKUP("Wyoming",Table_corruption_convictions__2[],6,0)</f>
         <v>5358501.0000000019</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G98" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H98" s="6">
         <v>1.03</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I98" s="9">
         <v>125</v>
       </c>
-      <c r="J90" s="11">
-        <v>60434</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+      <c r="J98" s="9">
+        <f>VLOOKUP("Oklahoma",Table_state_income_vs_corruption[],2,0)</f>
+        <v>51424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8" t="s">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H99" s="6">
         <v>1.9</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I99" s="6">
         <v>350</v>
       </c>
-      <c r="J91" s="11">
+      <c r="J99" s="9">
+        <f>VLOOKUP("New Jersey",Table_state_income_vs_corruption[],2,0)</f>
         <v>81740</v>
       </c>
     </row>

--- a/Data Analysis - Excel.xlsx
+++ b/Data Analysis - Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic Magbiray\Documents\REFOCUS\FINAL PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2634291-6786-45D4-9FE0-6DB6869F69D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BF9435-B914-4CED-8BAC-1A2845AD981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{606AA143-904B-44B2-902D-3E0D688C0548}"/>
   </bookViews>
@@ -20,12 +20,21 @@
   <definedNames>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">'Imported Dataset from SQL'!$A$1:$E$51</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">'Financial Viability Metrics'!$A$1:$E$42</definedName>
+    <definedName name="Slicer_state_usa">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -60,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="77">
   <si>
     <t>state_usa</t>
   </si>
@@ -286,13 +295,20 @@
   <si>
     <t>4M</t>
   </si>
+  <si>
+    <t>No Data Given</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -424,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,19 +451,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
       <fill>
@@ -455,6 +516,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -462,6 +524,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -487,6 +550,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -494,6 +558,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -501,6 +566,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -508,6 +574,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -515,6 +582,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -522,6 +590,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -529,6 +598,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -536,6 +606,7 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -545,23 +616,10 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;₱&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -604,10 +662,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -618,9 +676,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -628,11 +686,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-PH" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="en-PH"/>
               <a:t>State income vs. Corruption convictions per capita</a:t>
             </a:r>
           </a:p>
@@ -651,9 +705,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -671,10 +725,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.5720060539877777E-2"/>
-          <c:y val="9.839215686274512E-2"/>
-          <c:w val="0.88749161829223899"/>
-          <c:h val="0.76357542071946893"/>
+          <c:x val="0.12378056339279506"/>
+          <c:y val="0.1164897990592078"/>
+          <c:w val="0.85943101137330702"/>
+          <c:h val="0.74547765654101394"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -686,47 +740,39 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent5"/>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="28575" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="lt1">
                     <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -736,12 +782,13 @@
           </c:trendline>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="28575" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="lt1">
                     <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -784,7 +831,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data Analysis'!$I$108:$I$157</c:f>
+              <c:f>'Data Analysis'!$H$57:$H$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -943,7 +990,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data Analysis'!$J$108:$J$157</c:f>
+              <c:f>'Data Analysis'!$I$57:$I$106</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="50"/>
@@ -1132,7 +1179,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1142,7 +1189,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-PH" sz="1600">
+                  <a:rPr lang="en-PH" sz="1050">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1165,7 +1212,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
@@ -1184,13 +1231,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1199,9 +1241,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1229,9 +1271,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1239,11 +1281,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-PH" sz="1600">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-PH" sz="1400"/>
                   <a:t>Average Income</a:t>
                 </a:r>
               </a:p>
@@ -1262,9 +1300,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="lt1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1281,13 +1319,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1296,9 +1329,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1333,17 +1366,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="accent5"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent5"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1374,10 +1401,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
@@ -1392,26 +1419,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Average Income per State</a:t>
             </a:r>
           </a:p>
@@ -1430,19 +1456,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1460,21 +1479,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1501,21 +1520,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent5">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent5">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -1526,7 +1545,7 @@
             </a:gradFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1557,8 +1576,9 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1569,6 +1589,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1586,21 +1607,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1630,9 +1651,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1640,15 +1661,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:fld id="{44DF8D27-EFBE-4B43-AC8F-1ACEA72E5521}" type="VALUE">
-                  <a:rPr lang="en-US" sz="2000" b="1">
+                  <a:rPr lang="en-US" sz="1800">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:pPr>
-                    <a:defRPr sz="2000" b="1">
+                    <a:defRPr sz="1800" b="1">
                       <a:solidFill>
-                        <a:schemeClr val="bg1"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                     </a:defRPr>
                   </a:pPr>
@@ -1672,9 +1693,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1684,6 +1705,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1698,6 +1720,47 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1710,7 +1773,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Analysis'!$B$108</c:f>
+              <c:f>'Data Analysis'!$B$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1723,21 +1786,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent5">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent5">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -1779,9 +1842,9 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="bg1"/>
+                          <a:schemeClr val="accent1"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
@@ -1789,15 +1852,15 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:fld id="{44DF8D27-EFBE-4B43-AC8F-1ACEA72E5521}" type="VALUE">
-                      <a:rPr lang="en-US" sz="2000" b="1">
+                      <a:rPr lang="en-US" sz="1800">
                         <a:solidFill>
-                          <a:schemeClr val="bg1"/>
+                          <a:schemeClr val="accent1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr sz="2000" b="1">
+                        <a:defRPr sz="1800" b="1">
                           <a:solidFill>
-                            <a:schemeClr val="bg1"/>
+                            <a:schemeClr val="accent1"/>
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
@@ -1821,9 +1884,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="bg1"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -1833,6 +1896,7 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1865,8 +1929,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1877,6 +1942,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1889,13 +1955,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1905,7 +1972,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Analysis'!$A$109:$A$159</c:f>
+              <c:f>'Data Analysis'!$A$58:$A$108</c:f>
               <c:strCache>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
@@ -2063,7 +2130,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Analysis'!$B$109:$B$159</c:f>
+              <c:f>'Data Analysis'!$B$58:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="50"/>
@@ -2227,8 +2294,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2254,9 +2322,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2270,7 +2338,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2310,9 +2380,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2346,28 +2416,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2402,54 +2458,1427 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data Analysis - Excel.xlsx]Data Analysis!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-PH"/>
+              <a:t>Average income vs Corruption Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="31750" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="lt2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="lt2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$F$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of average_income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$D$58:$D$108</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>West Virginia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mississippi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>New Mexico</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arkansas</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>South Carolina</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Idaho</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Maine</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Missouri</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>South Dakota</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Vermont</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Nebraska</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Wyoming</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Arizona</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Oregon</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Delaware</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Rhode Island</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Utah</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Washington</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Hawaii</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>New Hampshire</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>California</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$F$58:$F$108</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>46254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53545</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54560</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54927</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55107</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56583</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57881</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58108</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58305</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58932</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59046</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59929</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60106</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60434</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61347</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62075</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62283</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63656</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63715</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63795</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63835</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64040</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64962</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65135</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70137</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70387</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72027</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72558</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>75417</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>76240</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>76440</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77338</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78084</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>78676</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>79287</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>80440</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81740</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82427</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>89392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B19-4288-99AD-2E83755DCAF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:axId val="1966025343"/>
+        <c:axId val="1966006623"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Analysis'!$E$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of convictions_per_capita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="lt2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Analysis'!$D$58:$D$108</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>West Virginia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mississippi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>New Mexico</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arkansas</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>South Carolina</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Idaho</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Maine</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Missouri</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>South Dakota</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Vermont</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Nebraska</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Wyoming</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Arizona</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Oregon</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Delaware</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Rhode Island</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Utah</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Washington</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Hawaii</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>New Hampshire</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>California</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Analysis'!$E$58:$E$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B19-4288-99AD-2E83755DCAF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1966009983"/>
+        <c:axId val="1966013823"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1966009983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1966013823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1966013823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>convictions per capita</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1966009983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1966006623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-PH">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>AVERAGE INCOME</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1966025343"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1966025343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1966006623"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.670457770004371E-2"/>
+          <c:y val="0.10636560958968025"/>
+          <c:w val="0.25313848770249753"/>
+          <c:h val="0.15785330193652691"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2483,83 +3912,88 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2567,6 +4001,46 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
@@ -2578,112 +4052,43 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:miter lim="800000"/>
+        <a:round/>
       </a:ln>
       <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
           <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
+        </a:outerShdw>
       </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2703,20 +4108,20 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2724,31 +4129,63 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2757,30 +4194,18 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -2792,19 +4217,19 @@
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2812,27 +4237,28 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2841,16 +4267,19 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2859,11 +4288,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2872,9 +4301,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -2895,18 +4322,31 @@
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2915,11 +4355,13 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2928,28 +4370,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
+          <a:schemeClr val="lt1">
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2958,14 +4397,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2974,16 +4413,16 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
+          <a:lumMod val="95000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2992,22 +4431,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -3021,33 +4447,35 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3055,44 +4483,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3111,6 +4532,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3199,18 +4628,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3220,20 +4652,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3247,14 +4679,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3268,8 +4700,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3281,7 +4714,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3294,9 +4727,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3311,13 +4744,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3329,14 +4763,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3348,13 +4782,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3363,8 +4798,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3374,7 +4810,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -3382,7 +4818,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3390,16 +4826,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3412,14 +4849,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3431,19 +4868,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3452,7 +4882,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -3467,8 +4897,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3478,7 +4909,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3486,9 +4917,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3499,8 +4930,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3510,7 +4942,474 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="326">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3520,16 +5419,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21773</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3557,15 +5456,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>80827</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>781051</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2093601</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3592,16 +5491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>35443</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>70884</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1187303</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>936172</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3616,8 +5515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35443" y="16072884"/>
-          <a:ext cx="6973186" cy="1045535"/>
+          <a:off x="7456715" y="4452256"/>
+          <a:ext cx="12660086" cy="587830"/>
         </a:xfrm>
         <a:prstGeom prst="bevel">
           <a:avLst/>
@@ -3645,13 +5544,656 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-PH" sz="1800" b="1">
+            <a:rPr lang="en-PH" sz="1600" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>By using VLOOKUP function, we are able to get the specific data/values from the other excel sheets to fill out the table below.</a:t>
+            <a:t>By using the VLOOKUP function, we are able to get the specific data/values from the other excel sheets to fill out the table below.</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2395947</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>903514</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F637436E-461A-CB8E-2E56-9667B9D489F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2318655</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370113</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$K$58">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8527C7-DA30-979B-A9B0-FB3A5269B546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7369626" y="65314"/>
+          <a:ext cx="3037116" cy="903515"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="101600" dist="38100" dir="2700000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="62000"/>
+            </a:prstClr>
+          </a:outerShdw>
+          <a:softEdge rad="38100"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Correlation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> Coefficient</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{05C45568-937F-4036-9C51-C18FE5F22714}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>-0.22628231</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638626</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>801913</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$O$30">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0842512D-D41D-4D06-9D61-B6C0F4658755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10675255" y="65314"/>
+          <a:ext cx="2982687" cy="903515"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="101600" dist="38100" dir="2700000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="62000"/>
+            </a:prstClr>
+          </a:outerShdw>
+          <a:softEdge rad="38100"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Highest Income</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{4433B9C0-F658-4186-8E4C-8604AAAAA5A2}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> $89,392 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1070426</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>547913</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$M$29">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D13EE8C-995A-4E6D-A534-115B9FAAF22F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13926455" y="65314"/>
+          <a:ext cx="2982687" cy="903515"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="101600" dist="38100" dir="2700000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="62000"/>
+            </a:prstClr>
+          </a:outerShdw>
+          <a:softEdge rad="38100"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Lowest Conviction Rate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{D41E340A-673F-452E-A8D5-555EABD15E38}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>0.043</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>816427</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$N$29">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle: Rounded Corners 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7D2CC0-4531-4C7D-A966-07E725C7AA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17177656" y="65314"/>
+          <a:ext cx="2982687" cy="903515"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="25400">
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="101600" dist="38100" dir="2700000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="62000"/>
+            </a:prstClr>
+          </a:outerShdw>
+          <a:softEdge rad="38100"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Highest Health Spending</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{9DEF1D80-0970-491D-946F-39B3310B89D2}" type="TxLink">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> $350 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143002</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2090058</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="18" name="state_usa">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3362D89-67DC-129F-FD67-A5B4C435205F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="state_usa"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3679373" y="185057"/>
+              <a:ext cx="3461656" cy="631372"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-PH" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1077686</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83ACF4CD-5F16-7438-E0FE-04E85A796F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="261257" y="87085"/>
+          <a:ext cx="3352800" cy="881743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="4400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="4400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Analysis</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="4400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3833,7 +6375,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1212588416"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -4196,7 +6738,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35A4024F-64E4-4902-B1BA-CAAF537ABCCF}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A108:B159" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A57:B108" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="51">
@@ -4536,7 +7078,7 @@
     <dataField name="Sum of average_income" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -4545,11 +7087,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4571,6 +7113,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4585,10 +7139,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8943763-711D-4C12-9A5C-1390AB3E64A5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E108:G159" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8943763-711D-4C12-9A5C-1390AB3E64A5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D57:F108" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="51">
         <item x="0"/>
         <item x="1"/>
@@ -4642,6 +7196,15 @@
         <item x="49"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField dataField="1" showAll="0">
       <items count="51">
@@ -4757,52 +7320,16 @@
   </rowFields>
   <rowItems count="51">
     <i>
-      <x/>
+      <x v="47"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="23"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="30"/>
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
     </i>
     <i>
       <x v="16"/>
@@ -4811,28 +7338,52 @@
       <x v="17"/>
     </i>
     <i>
+      <x/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
       <x v="18"/>
     </i>
     <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
+      <x v="41"/>
     </i>
     <i>
       <x v="24"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i>
       <x v="26"/>
@@ -4841,70 +7392,82 @@
       <x v="27"/>
     </i>
     <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
       <x v="28"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
+      <x v="19"/>
     </i>
     <i t="grand">
       <x/>
@@ -4926,7 +7489,7 @@
     <dataField name="Sum of average_income" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4936,7 +7499,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4946,6 +7509,26 @@
       </pivotArea>
     </format>
   </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4987,6 +7570,77 @@
 </queryTable>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_state_usa" xr10:uid="{4250CD28-B875-4A4A-8C01-21B6DBD1EE5A}" sourceName="state_usa">
+  <pivotTables>
+    <pivotTable tabId="5" name="PivotTable3"/>
+    <pivotTable tabId="5" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1212588416">
+      <items count="50">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+        <i x="12" s="1"/>
+        <i x="13" s="1"/>
+        <i x="14" s="1"/>
+        <i x="15" s="1"/>
+        <i x="16" s="1"/>
+        <i x="17" s="1"/>
+        <i x="18" s="1"/>
+        <i x="19" s="1"/>
+        <i x="20" s="1"/>
+        <i x="21" s="1"/>
+        <i x="22" s="1"/>
+        <i x="23" s="1"/>
+        <i x="24" s="1"/>
+        <i x="25" s="1"/>
+        <i x="26" s="1"/>
+        <i x="27" s="1"/>
+        <i x="28" s="1"/>
+        <i x="29" s="1"/>
+        <i x="30" s="1"/>
+        <i x="31" s="1"/>
+        <i x="32" s="1"/>
+        <i x="33" s="1"/>
+        <i x="34" s="1"/>
+        <i x="35" s="1"/>
+        <i x="36" s="1"/>
+        <i x="37" s="1"/>
+        <i x="38" s="1"/>
+        <i x="39" s="1"/>
+        <i x="40" s="1"/>
+        <i x="41" s="1"/>
+        <i x="42" s="1"/>
+        <i x="43" s="1"/>
+        <i x="44" s="1"/>
+        <i x="45" s="1"/>
+        <i x="46" s="1"/>
+        <i x="47" s="1"/>
+        <i x="48" s="1"/>
+        <i x="49" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="state_usa" xr10:uid="{91A9D05B-691D-45DB-AF94-96E66A8E6FAF}" cache="Slicer_state_usa" caption="Choose a State" style="SlicerStyleDark1" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{417342B6-40C1-45D7-A715-2D9D8E6593DD}" name="Table_state_income_vs_corruption" displayName="Table_state_income_vs_corruption" ref="A1:E51" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E51" xr:uid="{417342B6-40C1-45D7-A715-2D9D8E6593DD}"/>
@@ -4994,7 +7648,7 @@
     <sortCondition descending="1" ref="E1:E51"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E7D28DBB-395B-4441-A997-48AA9F3C1295}" uniqueName="1" name="state_usa" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{E7D28DBB-395B-4441-A997-48AA9F3C1295}" uniqueName="1" name="state_usa" queryTableFieldId="1" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{A8EC421B-9FB6-4200-8BB4-DAC2D2DBCDAA}" uniqueName="2" name="average_income" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{EDCC2202-4067-4698-861D-A950A27D24A0}" uniqueName="3" name="minimum_income" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7DDCCD20-58F0-415A-A063-99501184179C}" uniqueName="4" name="maximum_income" queryTableFieldId="4"/>
@@ -5011,12 +7665,12 @@
     <sortCondition descending="1" ref="F2:F42"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="4" xr3:uid="{0AE518B1-7598-4775-B08C-6EBEDE36B295}" uniqueName="4" name="state_usa" queryTableFieldId="4" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{98862F55-86D8-487C-B8AB-84E276071A2D}" uniqueName="9" name="Research and Development" queryTableFieldId="11" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{BC34DFFC-15F9-48F0-AF5C-A23F18D44576}" uniqueName="10" name="Administrtation" queryTableFieldId="12" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{9994DADE-8847-4F5F-8309-7C6FC58CCE39}" uniqueName="7" name="Marketing" queryTableFieldId="7" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{01118CC8-8F1A-4D69-B536-51AADB2438C7}" uniqueName="5" name="Profit" queryTableFieldId="5" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{E744C25C-4E6A-4BE7-BFB8-9F71DD83DE4E}" uniqueName="8" name="Net Profit" queryTableFieldId="10" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{0AE518B1-7598-4775-B08C-6EBEDE36B295}" uniqueName="4" name="state_usa" queryTableFieldId="4" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{98862F55-86D8-487C-B8AB-84E276071A2D}" uniqueName="9" name="Research and Development" queryTableFieldId="11" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{BC34DFFC-15F9-48F0-AF5C-A23F18D44576}" uniqueName="10" name="Administrtation" queryTableFieldId="12" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{9994DADE-8847-4F5F-8309-7C6FC58CCE39}" uniqueName="7" name="Marketing" queryTableFieldId="7" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{01118CC8-8F1A-4D69-B536-51AADB2438C7}" uniqueName="5" name="Profit" queryTableFieldId="5" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{E744C25C-4E6A-4BE7-BFB8-9F71DD83DE4E}" uniqueName="8" name="Net Profit" queryTableFieldId="10" dataDxfId="17">
       <calculatedColumnFormula>Table_corruption_convictions__2[[#This Row],[Profit]]-(Table_corruption_convictions__2[[#This Row],[Marketing]]+Table_corruption_convictions__2[[#This Row],[Administrtation]]+Table_corruption_convictions__2[[#This Row],[Research and Development]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5025,22 +7679,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{284E573B-2AAE-440E-A3FC-B50EB80EF0CA}" name="Table8" displayName="Table8" ref="A93:J99" totalsRowShown="0" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A93:J99" xr:uid="{284E573B-2AAE-440E-A3FC-B50EB80EF0CA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A94:J99">
-    <sortCondition ref="B94:B99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{284E573B-2AAE-440E-A3FC-B50EB80EF0CA}" name="Table8" displayName="Table8" ref="F28:O34" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F29:O34">
+    <sortCondition ref="G29:G34"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4C0D5261-CE0A-43D1-81FE-5B2107DD0B4D}" name="state_usa" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E76581ED-5D9C-417C-994E-E8C8CA60122F}" name="Research and Development" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{A6FA3AA6-D9AE-4C27-9ED9-AD2D36750887}" name="Administrtation" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{778675B0-E329-4AF0-ACE3-6E76D870F727}" name="Marketing" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{CDD119D8-5CDE-49C3-A92A-8F92F0CEC384}" name="Profit" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{EC879D5B-3728-4614-A3EA-ECD02D5862A2}" name="Net Profit" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{8DC3BD76-B0B0-4389-93F3-7F8982D5BD04}" name="Population" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{D8AA7567-0C87-4A86-A606-D1035F26EA0D}" name="Convic Rate" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{51917961-FA24-4119-BD1E-BB542DCAA041}" name="Health spender" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{0232DF5A-789B-4BCB-B93B-75F63563C10A}" name="Income" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4C0D5261-CE0A-43D1-81FE-5B2107DD0B4D}" name="state_usa" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E76581ED-5D9C-417C-994E-E8C8CA60122F}" name="R&amp;D" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{A6FA3AA6-D9AE-4C27-9ED9-AD2D36750887}" name="Administrtation" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{778675B0-E329-4AF0-ACE3-6E76D870F727}" name="Marketing" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{CDD119D8-5CDE-49C3-A92A-8F92F0CEC384}" name="Profit" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{EC879D5B-3728-4614-A3EA-ECD02D5862A2}" name="Net Profit" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{8DC3BD76-B0B0-4389-93F3-7F8982D5BD04}" name="Population" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{D8AA7567-0C87-4A86-A606-D1035F26EA0D}" name="Convic Rate" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{51917961-FA24-4119-BD1E-BB542DCAA041}" name="Health spender" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{0232DF5A-789B-4BCB-B93B-75F63563C10A}" name="Income" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7144,29 +9797,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07F79B3-A987-47E3-8F53-1B05D961F6E4}">
-  <dimension ref="A26:N161"/>
+  <dimension ref="A26:O161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="28.33203125" customWidth="1"/>
-    <col min="14" max="14" width="34.21875" customWidth="1"/>
-    <col min="15" max="51" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="16" max="51" width="6" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
@@ -7220,287 +9874,1452 @@
     <col min="102" max="102" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="26" spans="5:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="5:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E27" s="13">
-        <f>CORREL(I108:I157,J108:J157)</f>
-        <v>-0.22628231005583294</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
+    <row r="26" spans="6:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="6:15" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" s="10" t="s">
+      <c r="G28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="I28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="J28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="K28" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G93" t="s">
+      <c r="L28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H93" t="s">
+      <c r="M28" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I93" t="s">
+      <c r="N28" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J93" t="s">
+      <c r="O28" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="str">
+    <row r="29" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F29" s="12" t="str">
         <f>VLOOKUP("Hawaii",Table_state_income_vs_corruption[],1,0)</f>
         <v>Hawaii</v>
       </c>
-      <c r="B94" s="9">
+      <c r="G29" s="16">
         <f>VLOOKUP("Hawaii",Table_corruption_convictions__2[],2,0)</f>
         <v>3042407.9699999997</v>
       </c>
-      <c r="C94" s="9">
+      <c r="H29" s="16">
         <f>VLOOKUP("Hawaii",Table_corruption_convictions__2[],3,0)</f>
         <v>292099.69999999995</v>
       </c>
-      <c r="D94" s="9">
+      <c r="I29" s="16">
         <f>VLOOKUP("Hawaii",Table_corruption_convictions__2[],4,0)</f>
         <v>197432</v>
       </c>
-      <c r="E94" s="9">
+      <c r="J29" s="16">
         <f>VLOOKUP("Hawaii",Table_corruption_convictions__2[],5,0)</f>
         <v>4666354.9700000007</v>
       </c>
-      <c r="F94" s="9">
+      <c r="K29" s="16">
         <f>VLOOKUP("Hawaii",Table_corruption_convictions__2[],6,0)</f>
         <v>1134415.3000000007</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="L29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H94" s="6">
+      <c r="M29" s="9">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N29" s="16">
         <v>350</v>
       </c>
-      <c r="J94" s="9">
+      <c r="O29" s="16">
         <f>VLOOKUP("Hawaii",Table_state_income_vs_corruption[],2,0)</f>
         <v>78084</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="str">
+    <row r="30" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="13" t="str">
         <f>VLOOKUP("Maryland",Table_state_income_vs_corruption[],1,0)</f>
         <v>Maryland</v>
       </c>
-      <c r="B95" s="8">
+      <c r="G30" s="17">
         <f>VLOOKUP("Maryland",Table_corruption_convictions__2[],2,0)</f>
         <v>4263071.96</v>
       </c>
-      <c r="C95" s="8">
+      <c r="H30" s="17">
         <f>VLOOKUP("Maryland",Table_corruption_convictions__2[],3,0)</f>
         <v>470056.6</v>
       </c>
-      <c r="D95" s="8">
+      <c r="I30" s="17">
         <f>VLOOKUP("Maryland",Table_corruption_convictions__2[],4,0)</f>
         <v>292721</v>
       </c>
-      <c r="E95" s="8">
+      <c r="J30" s="17">
         <f>VLOOKUP("Maryland",Table_corruption_convictions__2[],5,0)</f>
         <v>7120800.96</v>
       </c>
-      <c r="F95" s="8">
+      <c r="K30" s="17">
         <f>VLOOKUP("Maryland",Table_corruption_convictions__2[],6,0)</f>
         <v>2094951.4000000004</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="L30" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H95" s="7">
+      <c r="M30" s="10">
         <v>1.38</v>
       </c>
-      <c r="I95" s="8">
+      <c r="N30" s="17">
         <v>200</v>
       </c>
-      <c r="J95" s="9">
+      <c r="O30" s="16">
         <f>VLOOKUP("Maryland",Table_state_income_vs_corruption[],2,0)</f>
         <v>89392</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
+    <row r="31" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="8">
+      <c r="G31" s="17">
         <f>VLOOKUP("California",Table_corruption_convictions__2[],2,0)</f>
         <v>7361202.5</v>
       </c>
-      <c r="C96" s="8">
+      <c r="H31" s="17">
         <f>VLOOKUP("California",Table_corruption_convictions__2[],3,0)</f>
         <v>3199484.48</v>
       </c>
-      <c r="D96" s="8">
+      <c r="I31" s="17">
         <f>VLOOKUP("California",Table_corruption_convictions__2[],4,0)</f>
         <v>5070906.74</v>
       </c>
-      <c r="E96" s="8">
+      <c r="J31" s="17">
         <f>VLOOKUP("California",Table_corruption_convictions__2[],5,0)</f>
         <v>10754524</v>
       </c>
-      <c r="F96" s="8">
+      <c r="K31" s="17">
         <f>VLOOKUP("California",Table_corruption_convictions__2[],6,0)</f>
         <v>-4877069.7200000007</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="L31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H96" s="7">
+      <c r="M31" s="10">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I96" s="8">
+      <c r="N31" s="17">
         <v>250</v>
       </c>
-      <c r="J96" s="9">
+      <c r="O31" s="16">
         <f>VLOOKUP("California",Table_state_income_vs_corruption[],2,0)</f>
         <v>80440</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+    <row r="32" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="8">
+      <c r="G32" s="17">
         <f>VLOOKUP("Oklahoma",Table_corruption_convictions__2[],2,0)</f>
         <v>7546525.9300000006</v>
       </c>
-      <c r="C97" s="8">
+      <c r="H32" s="17">
         <f>VLOOKUP("Oklahoma",Table_corruption_convictions__2[],3,0)</f>
         <v>679185.3</v>
       </c>
-      <c r="D97" s="8">
+      <c r="I32" s="17">
         <f>VLOOKUP("Oklahoma",Table_corruption_convictions__2[],4,0)</f>
         <v>627142</v>
       </c>
-      <c r="E97" s="8">
+      <c r="J32" s="17">
         <f>VLOOKUP("Oklahoma",Table_corruption_convictions__2[],5,0)</f>
         <v>15699222.930000002</v>
       </c>
-      <c r="F97" s="8">
+      <c r="K32" s="17">
         <f>VLOOKUP("Oklahoma",Table_corruption_convictions__2[],6,0)</f>
         <v>6846369.7000000011</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="L32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H97" s="7">
+      <c r="M32" s="10">
         <v>3.23</v>
       </c>
-      <c r="I97" s="8">
+      <c r="N32" s="17">
         <v>175.5</v>
       </c>
-      <c r="J97" s="9">
+      <c r="O32" s="16">
         <v>51424</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+    <row r="33" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="9">
+      <c r="G33" s="16">
         <f>VLOOKUP("Wyoming",Table_corruption_convictions__2[],2,0)</f>
         <v>9450079.9000000004</v>
       </c>
-      <c r="C98" s="9">
+      <c r="H33" s="16">
         <f>VLOOKUP("Wyoming",Table_corruption_convictions__2[],3,0)</f>
         <v>1060288</v>
       </c>
-      <c r="D98" s="9">
+      <c r="I33" s="16">
         <f>VLOOKUP("Wyoming",Table_corruption_convictions__2[],4,0)</f>
         <v>841671</v>
       </c>
-      <c r="E98" s="9">
+      <c r="J33" s="16">
         <f>VLOOKUP("Wyoming",Table_corruption_convictions__2[],5,0)</f>
         <v>16710539.900000002</v>
       </c>
-      <c r="F98" s="9">
+      <c r="K33" s="16">
         <f>VLOOKUP("Wyoming",Table_corruption_convictions__2[],6,0)</f>
         <v>5358501.0000000019</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="L33" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H98" s="6">
+      <c r="M33" s="9">
         <v>1.03</v>
       </c>
-      <c r="I98" s="9">
+      <c r="N33" s="16">
         <v>125</v>
       </c>
-      <c r="J98" s="9">
+      <c r="O33" s="16">
         <f>VLOOKUP("Oklahoma",Table_state_income_vs_corruption[],2,0)</f>
         <v>51424</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+    <row r="34" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6" t="s">
+      <c r="G34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H99" s="6">
+      <c r="M34" s="9">
         <v>1.9</v>
       </c>
-      <c r="I99" s="6">
+      <c r="N34" s="18">
         <v>350</v>
       </c>
-      <c r="J99" s="9">
+      <c r="O34" s="16">
         <f>VLOOKUP("New Jersey",Table_state_income_vs_corruption[],2,0)</f>
         <v>81740</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57">
+        <v>2.15</v>
+      </c>
+      <c r="I57" s="3">
+        <v>51113</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="3">
+        <v>46254</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="19">
+        <v>5.64</v>
+      </c>
+      <c r="F58" s="3">
+        <v>46254</v>
+      </c>
+      <c r="H58">
+        <v>1.06</v>
+      </c>
+      <c r="I58" s="3">
+        <v>76440</v>
+      </c>
+      <c r="K58" s="7">
+        <f>CORREL(H57:H106,I57:I106)</f>
+        <v>-0.22628231005583294</v>
+      </c>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="3">
+        <v>47131</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="19">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F59" s="3">
+        <v>47131</v>
+      </c>
+      <c r="H59">
+        <v>1.4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>62283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="3">
+        <v>48701</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="19">
+        <v>2.14</v>
+      </c>
+      <c r="F60" s="3">
+        <v>48701</v>
+      </c>
+      <c r="H60">
+        <v>3.02</v>
+      </c>
+      <c r="I60" s="3">
+        <v>48829</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3">
+        <v>48829</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="19">
+        <v>3.02</v>
+      </c>
+      <c r="F61" s="3">
+        <v>48829</v>
+      </c>
+      <c r="H61">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I61" s="3">
+        <v>80440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="3">
+        <v>50675</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="F62" s="3">
+        <v>50675</v>
+      </c>
+      <c r="H62">
+        <v>0.8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>76240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="3">
+        <v>50686</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="19">
+        <v>3.72</v>
+      </c>
+      <c r="F63" s="3">
+        <v>50686</v>
+      </c>
+      <c r="H63">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I63" s="3">
+        <v>79287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3">
+        <v>51113</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="F64" s="3">
+        <v>51113</v>
+      </c>
+      <c r="H64">
+        <v>1.08</v>
+      </c>
+      <c r="I64" s="3">
+        <v>64040</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="3">
+        <v>51424</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="19">
+        <v>3.23</v>
+      </c>
+      <c r="F65" s="3">
+        <v>51424</v>
+      </c>
+      <c r="H65">
+        <v>1.65</v>
+      </c>
+      <c r="I65" s="3">
+        <v>58108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3">
+        <v>52536</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="19">
+        <v>2.04</v>
+      </c>
+      <c r="F66" s="3">
+        <v>52536</v>
+      </c>
+      <c r="H66">
+        <v>1.6</v>
+      </c>
+      <c r="I66" s="3">
+        <v>58932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="3">
+        <v>53545</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F67" s="3">
+        <v>53545</v>
+      </c>
+      <c r="H67">
+        <v>0.43</v>
+      </c>
+      <c r="I67" s="3">
+        <v>78084</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="3">
+        <v>54560</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="F68" s="3">
+        <v>54560</v>
+      </c>
+      <c r="H68">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I68" s="3">
+        <v>53545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="3">
+        <v>54875</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F69" s="3">
+        <v>54875</v>
+      </c>
+      <c r="H69">
+        <v>1.27</v>
+      </c>
+      <c r="I69" s="3">
+        <v>70387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="3">
+        <v>54927</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="F70" s="3">
+        <v>54927</v>
+      </c>
+      <c r="H70">
+        <v>0.9</v>
+      </c>
+      <c r="I70" s="3">
+        <v>57881</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="3">
+        <v>55107</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="19">
+        <v>3.69</v>
+      </c>
+      <c r="F71" s="3">
+        <v>55107</v>
+      </c>
+      <c r="H71">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I71" s="3">
+        <v>62075</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="3">
+        <v>55685</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>55685</v>
+      </c>
+      <c r="H72">
+        <v>1.02</v>
+      </c>
+      <c r="I72" s="3">
+        <v>59046</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="3">
+        <v>56499</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="19">
+        <v>0.87</v>
+      </c>
+      <c r="F73" s="3">
+        <v>56499</v>
+      </c>
+      <c r="H73">
+        <v>1.6</v>
+      </c>
+      <c r="I73" s="3">
+        <v>50675</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="3">
+        <v>56583</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="F74" s="3">
+        <v>56583</v>
+      </c>
+      <c r="H74">
+        <v>3.72</v>
+      </c>
+      <c r="I74" s="3">
+        <v>50686</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="3">
+        <v>57881</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="F75" s="3">
+        <v>57881</v>
+      </c>
+      <c r="H75">
+        <v>0.48</v>
+      </c>
+      <c r="I75" s="3">
+        <v>54927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="3">
+        <v>58108</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="19">
+        <v>1.65</v>
+      </c>
+      <c r="F76" s="3">
+        <v>58108</v>
+      </c>
+      <c r="H76">
+        <v>1.38</v>
+      </c>
+      <c r="I76" s="3">
+        <v>89392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="3">
+        <v>58305</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="19">
+        <v>0.44</v>
+      </c>
+      <c r="F77" s="3">
+        <v>58305</v>
+      </c>
+      <c r="H77">
+        <v>2.27</v>
+      </c>
+      <c r="I77" s="3">
+        <v>82427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="3">
+        <v>58932</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="F78" s="3">
+        <v>58932</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" s="3">
+        <v>61347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="3">
+        <v>59046</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="19">
+        <v>1.02</v>
+      </c>
+      <c r="F79" s="3">
+        <v>59046</v>
+      </c>
+      <c r="H79">
+        <v>0.68</v>
+      </c>
+      <c r="I79" s="3">
+        <v>72027</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="3">
+        <v>59929</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F80" s="3">
+        <v>59929</v>
+      </c>
+      <c r="H80">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I80" s="3">
+        <v>47131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="3">
+        <v>60106</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="19">
+        <v>1.63</v>
+      </c>
+      <c r="F81" s="3">
+        <v>60106</v>
+      </c>
+      <c r="H81">
+        <v>1.5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>55685</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="3">
+        <v>60434</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="19">
+        <v>1.03</v>
+      </c>
+      <c r="F82" s="3">
+        <v>60434</v>
+      </c>
+      <c r="H82">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I82" s="3">
+        <v>54875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="3">
+        <v>61347</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="19">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>61347</v>
+      </c>
+      <c r="H83">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I83" s="3">
+        <v>59929</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="3">
+        <v>62075</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F84" s="3">
+        <v>62075</v>
+      </c>
+      <c r="H84">
+        <v>1.63</v>
+      </c>
+      <c r="I84" s="3">
+        <v>60106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="3">
+        <v>62283</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="F85" s="3">
+        <v>62283</v>
+      </c>
+      <c r="H85">
+        <v>0.51</v>
+      </c>
+      <c r="I85" s="3">
+        <v>78676</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="3">
+        <v>63656</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="19">
+        <v>1.82</v>
+      </c>
+      <c r="F86" s="3">
+        <v>63656</v>
+      </c>
+      <c r="H86">
+        <v>1.9</v>
+      </c>
+      <c r="I86" s="3">
+        <v>81740</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="3">
+        <v>63715</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F87" s="3">
+        <v>63715</v>
+      </c>
+      <c r="H87">
+        <v>2.14</v>
+      </c>
+      <c r="I87" s="3">
+        <v>48701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" s="3">
+        <v>63795</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" s="19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F88" s="3">
+        <v>63795</v>
+      </c>
+      <c r="H88">
+        <v>1.59</v>
+      </c>
+      <c r="I88" s="3">
+        <v>70137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="3">
+        <v>63835</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="19">
+        <v>1.87</v>
+      </c>
+      <c r="F89" s="3">
+        <v>63835</v>
+      </c>
+      <c r="H89">
+        <v>1.05</v>
+      </c>
+      <c r="I89" s="3">
+        <v>54560</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="3">
+        <v>64040</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="19">
+        <v>1.08</v>
+      </c>
+      <c r="F90" s="3">
+        <v>64040</v>
+      </c>
+      <c r="H90">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I90" s="3">
+        <v>63715</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="3">
+        <v>64962</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="19">
+        <v>8.35</v>
+      </c>
+      <c r="F91" s="3">
+        <v>64962</v>
+      </c>
+      <c r="H91">
+        <v>0.89</v>
+      </c>
+      <c r="I91" s="3">
+        <v>56583</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="3">
+        <v>65135</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="F92" s="3">
+        <v>65135</v>
+      </c>
+      <c r="H92">
+        <v>3.23</v>
+      </c>
+      <c r="I92" s="3">
+        <v>51424</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="3">
+        <v>70137</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="19">
+        <v>1.59</v>
+      </c>
+      <c r="F93" s="3">
+        <v>70137</v>
+      </c>
+      <c r="H93">
+        <v>1.87</v>
+      </c>
+      <c r="I93" s="3">
+        <v>63835</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="3">
+        <v>70387</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="19">
+        <v>1.27</v>
+      </c>
+      <c r="F94" s="3">
+        <v>70387</v>
+      </c>
+      <c r="H94">
+        <v>1.25</v>
+      </c>
+      <c r="I94" s="3">
+        <v>65135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="3">
+        <v>72027</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="F95" s="3">
+        <v>72027</v>
+      </c>
+      <c r="H95">
+        <v>8.35</v>
+      </c>
+      <c r="I95" s="3">
+        <v>64962</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="3">
+        <v>72558</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E96" s="19">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F96" s="3">
+        <v>72558</v>
+      </c>
+      <c r="H96">
+        <v>2.04</v>
+      </c>
+      <c r="I96" s="3">
+        <v>52536</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="3">
+        <v>75417</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" s="19">
+        <v>1.57</v>
+      </c>
+      <c r="F97" s="3">
+        <v>75417</v>
+      </c>
+      <c r="H97">
+        <v>0.87</v>
+      </c>
+      <c r="I97" s="3">
+        <v>56499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="3">
+        <v>76240</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="F98" s="3">
+        <v>76240</v>
+      </c>
+      <c r="H98">
+        <v>3.69</v>
+      </c>
+      <c r="I98" s="3">
+        <v>55107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="3">
+        <v>76440</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="19">
+        <v>1.06</v>
+      </c>
+      <c r="F99" s="3">
+        <v>76440</v>
+      </c>
+      <c r="H99">
+        <v>1.82</v>
+      </c>
+      <c r="I99" s="3">
+        <v>63656</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="3">
+        <v>77338</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100" s="19">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F100" s="3">
+        <v>77338</v>
+      </c>
+      <c r="H100">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I100" s="3">
+        <v>72558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="3">
+        <v>78084</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="F101" s="3">
+        <v>78084</v>
+      </c>
+      <c r="H101">
+        <v>0.44</v>
+      </c>
+      <c r="I101" s="3">
+        <v>58305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="3">
+        <v>78676</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" s="19">
+        <v>0.51</v>
+      </c>
+      <c r="F102" s="3">
+        <v>78676</v>
+      </c>
+      <c r="H102">
+        <v>1.57</v>
+      </c>
+      <c r="I102" s="3">
+        <v>75417</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="3">
+        <v>79287</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="19">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F103" s="3">
+        <v>79287</v>
+      </c>
+      <c r="H103">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I103" s="3">
+        <v>77338</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="3">
+        <v>80440</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F104" s="3">
+        <v>80440</v>
+      </c>
+      <c r="H104">
+        <v>5.64</v>
+      </c>
+      <c r="I104" s="3">
+        <v>46254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="3">
+        <v>81740</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="F105" s="3">
+        <v>81740</v>
+      </c>
+      <c r="H105">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I105" s="3">
+        <v>63795</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="3">
+        <v>82427</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="19">
+        <v>2.27</v>
+      </c>
+      <c r="F106" s="3">
+        <v>82427</v>
+      </c>
+      <c r="H106">
+        <v>1.03</v>
+      </c>
+      <c r="I106" s="3">
+        <v>60434</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="3">
+        <v>89392</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="19">
+        <v>1.38</v>
+      </c>
+      <c r="F107" s="3">
+        <v>89392</v>
+      </c>
+    </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B108" t="s">
-        <v>57</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F108" t="s">
-        <v>64</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I108">
-        <v>2.15</v>
-      </c>
-      <c r="J108" s="3">
-        <v>51113</v>
+      <c r="A108" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="3">
+        <v>3157304</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="19">
+        <v>1.6945999999999999</v>
+      </c>
+      <c r="F108" s="19">
+        <v>3157304</v>
       </c>
       <c r="L108" s="5"/>
       <c r="M108" s="5">
@@ -7511,27 +11330,6 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109" s="3">
-        <v>46254</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109">
-        <v>2.15</v>
-      </c>
-      <c r="G109" s="3">
-        <v>51113</v>
-      </c>
-      <c r="I109">
-        <v>1.06</v>
-      </c>
-      <c r="J109" s="3">
-        <v>76440</v>
-      </c>
       <c r="L109">
         <v>2.15</v>
       </c>
@@ -7540,27 +11338,6 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B110" s="3">
-        <v>47131</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110">
-        <v>1.06</v>
-      </c>
-      <c r="G110" s="3">
-        <v>76440</v>
-      </c>
-      <c r="I110">
-        <v>1.4</v>
-      </c>
-      <c r="J110" s="3">
-        <v>62283</v>
-      </c>
       <c r="L110" s="4">
         <v>51113</v>
       </c>
@@ -7572,1214 +11349,165 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" s="3">
-        <v>48701</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111">
-        <v>1.4</v>
-      </c>
-      <c r="G111" s="3">
-        <v>62283</v>
-      </c>
-      <c r="I111">
-        <v>3.02</v>
-      </c>
-      <c r="J111" s="3">
-        <v>48829</v>
-      </c>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" s="3">
-        <v>48829</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112">
-        <v>3.02</v>
-      </c>
-      <c r="G112" s="3">
-        <v>48829</v>
-      </c>
-      <c r="I112">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J112" s="3">
-        <v>80440</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B113" s="3">
-        <v>50675</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G113" s="3">
-        <v>80440</v>
-      </c>
-      <c r="I113">
-        <v>0.8</v>
-      </c>
-      <c r="J113" s="3">
-        <v>76240</v>
-      </c>
+    <row r="113" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B114" s="3">
-        <v>50686</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114">
-        <v>0.8</v>
-      </c>
-      <c r="G114" s="3">
-        <v>76240</v>
-      </c>
-      <c r="I114">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="J114" s="3">
-        <v>79287</v>
-      </c>
+    <row r="114" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="3">
-        <v>51113</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="G115" s="3">
-        <v>79287</v>
-      </c>
-      <c r="I115">
-        <v>1.08</v>
-      </c>
-      <c r="J115" s="3">
-        <v>64040</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B116" s="3">
-        <v>51424</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116">
-        <v>1.08</v>
-      </c>
-      <c r="G116" s="3">
-        <v>64040</v>
-      </c>
-      <c r="I116">
-        <v>1.65</v>
-      </c>
-      <c r="J116" s="3">
-        <v>58108</v>
-      </c>
+    <row r="116" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" s="3">
-        <v>52536</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117">
-        <v>1.65</v>
-      </c>
-      <c r="G117" s="3">
-        <v>58108</v>
-      </c>
-      <c r="I117">
-        <v>1.6</v>
-      </c>
-      <c r="J117" s="3">
-        <v>58932</v>
-      </c>
+    <row r="117" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
     </row>
-    <row r="118" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="3">
-        <v>53545</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118">
-        <v>1.6</v>
-      </c>
-      <c r="G118" s="3">
-        <v>58932</v>
-      </c>
-      <c r="I118">
-        <v>0.43</v>
-      </c>
-      <c r="J118" s="3">
-        <v>78084</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119" s="3">
-        <v>54560</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119">
-        <v>0.43</v>
-      </c>
-      <c r="G119" s="3">
-        <v>78084</v>
-      </c>
-      <c r="I119">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J119" s="3">
-        <v>53545</v>
-      </c>
+    <row r="118" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="119" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B120" s="3">
-        <v>54875</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G120" s="3">
-        <v>53545</v>
-      </c>
-      <c r="I120">
-        <v>1.27</v>
-      </c>
-      <c r="J120" s="3">
-        <v>70387</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B121" s="3">
-        <v>54927</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121">
-        <v>1.27</v>
-      </c>
-      <c r="G121" s="3">
-        <v>70387</v>
-      </c>
-      <c r="I121">
-        <v>0.9</v>
-      </c>
-      <c r="J121" s="3">
-        <v>57881</v>
-      </c>
+    <row r="121" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B122" s="3">
-        <v>55107</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F122">
-        <v>0.9</v>
-      </c>
-      <c r="G122" s="3">
-        <v>57881</v>
-      </c>
-      <c r="I122">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J122" s="3">
-        <v>62075</v>
-      </c>
+    <row r="122" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B123" s="3">
-        <v>55685</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G123" s="3">
-        <v>62075</v>
-      </c>
-      <c r="I123">
-        <v>1.02</v>
-      </c>
-      <c r="J123" s="3">
-        <v>59046</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B124" s="3">
-        <v>56499</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124">
-        <v>1.02</v>
-      </c>
-      <c r="G124" s="3">
-        <v>59046</v>
-      </c>
-      <c r="I124">
-        <v>1.6</v>
-      </c>
-      <c r="J124" s="3">
-        <v>50675</v>
-      </c>
+    <row r="124" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B125" s="3">
-        <v>56583</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125">
-        <v>1.6</v>
-      </c>
-      <c r="G125" s="3">
-        <v>50675</v>
-      </c>
-      <c r="I125">
-        <v>3.72</v>
-      </c>
-      <c r="J125" s="3">
-        <v>50686</v>
-      </c>
+    <row r="125" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B126" s="3">
-        <v>57881</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F126">
-        <v>3.72</v>
-      </c>
-      <c r="G126" s="3">
-        <v>50686</v>
-      </c>
-      <c r="I126">
-        <v>0.48</v>
-      </c>
-      <c r="J126" s="3">
-        <v>54927</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127" s="3">
-        <v>58108</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127">
-        <v>0.48</v>
-      </c>
-      <c r="G127" s="3">
-        <v>54927</v>
-      </c>
-      <c r="I127">
-        <v>1.38</v>
-      </c>
-      <c r="J127" s="3">
-        <v>89392</v>
-      </c>
+    <row r="127" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B128" s="3">
-        <v>58305</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F128">
-        <v>1.38</v>
-      </c>
-      <c r="G128" s="3">
-        <v>89392</v>
-      </c>
-      <c r="I128">
-        <v>2.27</v>
-      </c>
-      <c r="J128" s="3">
-        <v>82427</v>
-      </c>
+    <row r="128" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
     </row>
-    <row r="129" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" s="3">
-        <v>58932</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F129">
-        <v>2.27</v>
-      </c>
-      <c r="G129" s="3">
-        <v>82427</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="J129" s="3">
-        <v>61347</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B130" s="3">
-        <v>59046</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3">
-        <v>61347</v>
-      </c>
-      <c r="I130">
-        <v>0.68</v>
-      </c>
-      <c r="J130" s="3">
-        <v>72027</v>
-      </c>
+    <row r="129" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B131" s="3">
-        <v>59929</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F131">
-        <v>0.68</v>
-      </c>
-      <c r="G131" s="3">
-        <v>72027</v>
-      </c>
-      <c r="I131">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="J131" s="3">
-        <v>47131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B132" s="3">
-        <v>60106</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F132">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="G132" s="3">
-        <v>47131</v>
-      </c>
-      <c r="I132">
-        <v>1.5</v>
-      </c>
-      <c r="J132" s="3">
-        <v>55685</v>
-      </c>
+    <row r="132" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B133" s="3">
-        <v>60434</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F133">
-        <v>1.5</v>
-      </c>
-      <c r="G133" s="3">
-        <v>55685</v>
-      </c>
-      <c r="I133">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J133" s="3">
-        <v>54875</v>
-      </c>
+    <row r="133" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B134" s="3">
-        <v>61347</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F134">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G134" s="3">
-        <v>54875</v>
-      </c>
-      <c r="I134">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J134" s="3">
-        <v>59929</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B135" s="3">
-        <v>62075</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F135">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G135" s="3">
-        <v>59929</v>
-      </c>
-      <c r="I135">
-        <v>1.63</v>
-      </c>
-      <c r="J135" s="3">
-        <v>60106</v>
-      </c>
+    <row r="135" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="3">
-        <v>62283</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F136">
-        <v>1.63</v>
-      </c>
-      <c r="G136" s="3">
-        <v>60106</v>
-      </c>
-      <c r="I136">
-        <v>0.51</v>
-      </c>
-      <c r="J136" s="3">
-        <v>78676</v>
-      </c>
+    <row r="136" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B137" s="3">
-        <v>63656</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F137">
-        <v>0.51</v>
-      </c>
-      <c r="G137" s="3">
-        <v>78676</v>
-      </c>
-      <c r="I137">
-        <v>1.9</v>
-      </c>
-      <c r="J137" s="3">
-        <v>81740</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" s="3">
-        <v>63715</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F138">
-        <v>1.9</v>
-      </c>
-      <c r="G138" s="3">
-        <v>81740</v>
-      </c>
-      <c r="I138">
-        <v>2.14</v>
-      </c>
-      <c r="J138" s="3">
-        <v>48701</v>
-      </c>
+    <row r="138" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B139" s="3">
-        <v>63795</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F139">
-        <v>2.14</v>
-      </c>
-      <c r="G139" s="3">
-        <v>48701</v>
-      </c>
-      <c r="I139">
-        <v>1.59</v>
-      </c>
-      <c r="J139" s="3">
-        <v>70137</v>
-      </c>
+    <row r="139" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B140" s="3">
-        <v>63835</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F140">
-        <v>1.59</v>
-      </c>
-      <c r="G140" s="3">
-        <v>70137</v>
-      </c>
-      <c r="I140">
-        <v>1.05</v>
-      </c>
-      <c r="J140" s="3">
-        <v>54560</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141" s="3">
-        <v>64040</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F141">
-        <v>1.05</v>
-      </c>
-      <c r="G141" s="3">
-        <v>54560</v>
-      </c>
-      <c r="I141">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J141" s="3">
-        <v>63715</v>
-      </c>
+    <row r="140" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="141" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B142" s="3">
-        <v>64962</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F142">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G142" s="3">
-        <v>63715</v>
-      </c>
-      <c r="I142">
-        <v>0.89</v>
-      </c>
-      <c r="J142" s="3">
-        <v>56583</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B143" s="3">
-        <v>65135</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F143">
-        <v>0.89</v>
-      </c>
-      <c r="G143" s="3">
-        <v>56583</v>
-      </c>
-      <c r="I143">
-        <v>3.23</v>
-      </c>
-      <c r="J143" s="3">
-        <v>51424</v>
-      </c>
+    <row r="143" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B144" s="3">
-        <v>70137</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F144">
-        <v>3.23</v>
-      </c>
-      <c r="G144" s="3">
-        <v>51424</v>
-      </c>
-      <c r="I144">
-        <v>1.87</v>
-      </c>
-      <c r="J144" s="3">
-        <v>63835</v>
-      </c>
+    <row r="144" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" s="3">
-        <v>70387</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F145">
-        <v>1.87</v>
-      </c>
-      <c r="G145" s="3">
-        <v>63835</v>
-      </c>
-      <c r="I145">
-        <v>1.25</v>
-      </c>
-      <c r="J145" s="3">
-        <v>65135</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B146" s="3">
-        <v>72027</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F146">
-        <v>1.25</v>
-      </c>
-      <c r="G146" s="3">
-        <v>65135</v>
-      </c>
-      <c r="I146">
-        <v>8.35</v>
-      </c>
-      <c r="J146" s="3">
-        <v>64962</v>
-      </c>
+    <row r="146" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B147" s="3">
-        <v>72558</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F147">
-        <v>8.35</v>
-      </c>
-      <c r="G147" s="3">
-        <v>64962</v>
-      </c>
-      <c r="I147">
-        <v>2.04</v>
-      </c>
-      <c r="J147" s="3">
-        <v>52536</v>
-      </c>
+    <row r="147" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B148" s="3">
-        <v>75417</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F148">
-        <v>2.04</v>
-      </c>
-      <c r="G148" s="3">
-        <v>52536</v>
-      </c>
-      <c r="I148">
-        <v>0.87</v>
-      </c>
-      <c r="J148" s="3">
-        <v>56499</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" s="3">
-        <v>76240</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F149">
-        <v>0.87</v>
-      </c>
-      <c r="G149" s="3">
-        <v>56499</v>
-      </c>
-      <c r="I149">
-        <v>3.69</v>
-      </c>
-      <c r="J149" s="3">
-        <v>55107</v>
-      </c>
+    <row r="149" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="3">
-        <v>76440</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F150">
-        <v>3.69</v>
-      </c>
-      <c r="G150" s="3">
-        <v>55107</v>
-      </c>
-      <c r="I150">
-        <v>1.82</v>
-      </c>
-      <c r="J150" s="3">
-        <v>63656</v>
-      </c>
+    <row r="150" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B151" s="3">
-        <v>77338</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F151">
-        <v>1.82</v>
-      </c>
-      <c r="G151" s="3">
-        <v>63656</v>
-      </c>
-      <c r="I151">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J151" s="3">
-        <v>72558</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152" s="3">
-        <v>78084</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F152">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G152" s="3">
-        <v>72558</v>
-      </c>
-      <c r="I152">
-        <v>0.44</v>
-      </c>
-      <c r="J152" s="3">
-        <v>58305</v>
-      </c>
+    <row r="152" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B153" s="3">
-        <v>78676</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F153">
-        <v>0.44</v>
-      </c>
-      <c r="G153" s="3">
-        <v>58305</v>
-      </c>
-      <c r="I153">
-        <v>1.57</v>
-      </c>
-      <c r="J153" s="3">
-        <v>75417</v>
-      </c>
+    <row r="153" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154" s="3">
-        <v>79287</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F154">
-        <v>1.57</v>
-      </c>
-      <c r="G154" s="3">
-        <v>75417</v>
-      </c>
-      <c r="I154">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="J154" s="3">
-        <v>77338</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" s="3">
-        <v>80440</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F155">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="G155" s="3">
-        <v>77338</v>
-      </c>
-      <c r="I155">
-        <v>5.64</v>
-      </c>
-      <c r="J155" s="3">
-        <v>46254</v>
-      </c>
+    <row r="155" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B156" s="3">
-        <v>81740</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F156">
-        <v>5.64</v>
-      </c>
-      <c r="G156" s="3">
-        <v>46254</v>
-      </c>
-      <c r="I156">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J156" s="3">
-        <v>63795</v>
-      </c>
+    <row r="156" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
     </row>
-    <row r="157" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B157" s="3">
-        <v>82427</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F157">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G157" s="3">
-        <v>63795</v>
-      </c>
-      <c r="I157">
-        <v>1.03</v>
-      </c>
-      <c r="J157" s="3">
-        <v>60434</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="3">
-        <v>89392</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F158">
-        <v>1.03</v>
-      </c>
-      <c r="G158" s="3">
-        <v>60434</v>
-      </c>
+    <row r="157" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="158" spans="12:14" x14ac:dyDescent="0.3">
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B159" s="3">
-        <v>3157304</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F159">
-        <v>1.6945999999999999</v>
-      </c>
-      <c r="G159">
-        <v>3157304</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
@@ -8790,10 +11518,6 @@
       <c r="N161" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -8801,6 +11525,13 @@
   <tableParts count="1">
     <tablePart r:id="rId5"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId6"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
